--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>838820.3261668056</v>
+        <v>838153.9644906638</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>387777.8738956735</v>
+        <v>387777.8738956734</v>
       </c>
     </row>
     <row r="8">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.062055701367967</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05034583237529</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.7499384677911</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>46.66056629594539</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.58335640343289</v>
+        <v>86.82170806664908</v>
       </c>
     </row>
     <row r="12">
@@ -1452,55 +1452,55 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.900596534277914</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
-        <v>11.45560918177133</v>
+        <v>82.28262667135891</v>
       </c>
       <c r="U12" t="n">
         <v>33.73864095187865</v>
@@ -1515,7 +1515,7 @@
         <v>13.82391541678436</v>
       </c>
       <c r="Y12" t="n">
-        <v>86.82170806664908</v>
+        <v>19.89528711133937</v>
       </c>
     </row>
     <row r="13">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="G14" t="n">
-        <v>86.82170806664908</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>37.05034583237529</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.66056629594539</v>
       </c>
       <c r="V14" t="n">
         <v>86.82170806664908</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.062055701367939</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.6722761649381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>17.74395037481715</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>11.45560918177133</v>
+        <v>82.28262667135891</v>
       </c>
       <c r="U15" t="n">
-        <v>86.82170806664908</v>
+        <v>33.73864095187865</v>
       </c>
       <c r="V15" t="n">
         <v>37.159921892716</v>
@@ -1926,61 +1926,61 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6.0360680268751</v>
+      </c>
+      <c r="R18" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>76.47256046510448</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>70.43649243822939</v>
+      </c>
+      <c r="U18" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.53798799326447</v>
+        <v>39.5379879932637</v>
       </c>
       <c r="C20" t="n">
         <v>15.65624499660919</v>
@@ -2093,7 +2093,7 @@
         <v>68.64999725544385</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27671840285255</v>
+        <v>84.27671840285257</v>
       </c>
       <c r="H20" t="n">
         <v>12.34718069694389</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>76.47256046510448</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.47256046510448</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>68.64999725544385</v>
       </c>
       <c r="G23" t="n">
-        <v>84.27671840285255</v>
+        <v>84.27671840285257</v>
       </c>
       <c r="H23" t="n">
         <v>12.34718069694389</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>76.47256046510444</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.43649243822939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2479324259056</v>
+        <v>161.2479324259055</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3661894292511</v>
+        <v>137.366189429251</v>
       </c>
       <c r="D26" t="n">
         <v>124.9328516902995</v>
@@ -2573,7 +2573,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I26" t="n">
-        <v>27.7000369031338</v>
+        <v>27.70003690313375</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854961</v>
+        <v>14.39962953854955</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838095</v>
+        <v>9.573158425838038</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670384</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0404756572243</v>
+        <v>108.0404756572242</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0571558738392</v>
+        <v>125.0571558738391</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9434063427784</v>
+        <v>146.9434063427783</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4462594665222</v>
+        <v>169.4462594665221</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.956960677193</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11.71307052710157</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4695228506098</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.105300252529838</v>
+        <v>2.105300252529782</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38833202263716</v>
+        <v>24.3883320226371</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80961296347445</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86527562508385</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.473606487542867</v>
+        <v>4.47360648754281</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54497818209782</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991102</v>
+        <v>22.50334865991096</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89886382935998</v>
+        <v>10.89886382935993</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341608</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252211</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47139913740759</v>
+        <v>77.47139913740753</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314734</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240624</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2479324259056</v>
+        <v>161.2479324259055</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3661894292511</v>
+        <v>137.366189429251</v>
       </c>
       <c r="D29" t="n">
         <v>124.9328516902995</v>
@@ -2810,7 +2810,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I29" t="n">
-        <v>27.70003690313379</v>
+        <v>27.70003690313495</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39962953854961</v>
+        <v>14.39962953854955</v>
       </c>
       <c r="T29" t="n">
-        <v>9.573158425838095</v>
+        <v>9.573158425838038</v>
       </c>
       <c r="U29" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670384</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0404756572243</v>
+        <v>108.0404756572242</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0571558738392</v>
+        <v>125.0571558738391</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9434063427784</v>
+        <v>146.9434063427783</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4462594665222</v>
+        <v>169.4462594665221</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>83.54619069593322</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6724707086533</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.105300252529838</v>
+        <v>2.105300252529782</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38833202263716</v>
+        <v>24.3883320226371</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80961296347451</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.8652756250838</v>
       </c>
       <c r="X30" t="n">
-        <v>4.473606487542867</v>
+        <v>79.37782163734879</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50334865991102</v>
+        <v>22.50334865991096</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89886382935998</v>
+        <v>10.89886382935993</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341608</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252211</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47139913740759</v>
+        <v>77.47139913740753</v>
       </c>
       <c r="X31" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314734</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240624</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2479324259055</v>
+        <v>161.2479324259056</v>
       </c>
       <c r="C32" t="n">
-        <v>137.366189429251</v>
+        <v>137.3661894292511</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9328516902995</v>
+        <v>124.9328516902996</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6396041097083</v>
+        <v>158.6396041097084</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3599416880857</v>
+        <v>190.3599416880858</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0571251295857</v>
+        <v>134.0571251295858</v>
       </c>
       <c r="I32" t="n">
-        <v>27.70003690313371</v>
+        <v>27.70003690313383</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39962953854953</v>
+        <v>14.39962953854964</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838017</v>
+        <v>9.573158425838123</v>
       </c>
       <c r="U32" t="n">
-        <v>37.31025736670381</v>
+        <v>37.31025736670392</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0404756572242</v>
+        <v>108.0404756572243</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0571558738391</v>
+        <v>125.0571558738392</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9434063427783</v>
+        <v>146.9434063427784</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4462594665221</v>
+        <v>169.4462594665222</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>100.225371577368</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9446082044576</v>
+        <v>2.105300252529867</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38833202263708</v>
+        <v>233.6069934272234</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80961296347442</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86527562508377</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.473606487542781</v>
+        <v>4.473606487542895</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54497818209779</v>
+        <v>10.54497818209791</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50334865991093</v>
+        <v>22.50334865991105</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8988638293599</v>
+        <v>10.89886382936001</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81695046341605</v>
+        <v>75.81695046341616</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26970723252208</v>
+        <v>32.26970723252219</v>
       </c>
       <c r="W34" t="n">
-        <v>77.4713991374075</v>
+        <v>77.47139913740762</v>
       </c>
       <c r="X34" t="n">
-        <v>9.080147456314705</v>
+        <v>9.080147456314819</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.301964862240595</v>
+        <v>4.301964862240709</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>183.5152533901483</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3144462547806</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T36" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>177.7932945627824</v>
+        <v>0.3141091995091928</v>
       </c>
       <c r="V36" t="n">
         <v>3.735390140346539</v>
@@ -3506,22 +3506,22 @@
         <v>113.2919666061231</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E38" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H38" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005824</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357587</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X38" t="n">
         <v>122.8691835196504</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>29.43609291855221</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.6724707086533</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V39" t="n">
-        <v>188.6427249589683</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W39" t="n">
-        <v>29.79105280195583</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028812</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V40" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1737096027776</v>
+        <v>137.1737096027775</v>
       </c>
       <c r="C41" t="n">
-        <v>113.2919666061231</v>
+        <v>113.291966606123</v>
       </c>
       <c r="D41" t="n">
         <v>100.8586288671715</v>
@@ -3758,7 +3758,7 @@
         <v>109.9829023064578</v>
       </c>
       <c r="I41" t="n">
-        <v>3.625814080005767</v>
+        <v>3.625814080005739</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.23603454357588</v>
+        <v>13.23603454357585</v>
       </c>
       <c r="V41" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409622</v>
       </c>
       <c r="W41" t="n">
         <v>100.9829330507111</v>
       </c>
       <c r="X41" t="n">
-        <v>122.8691835196504</v>
+        <v>122.8691835196503</v>
       </c>
       <c r="Y41" t="n">
         <v>145.3720366433941</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>49.00140558645762</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>110.0662548682293</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.314109199509136</v>
+        <v>0.3141091995091075</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>29.79105280195583</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.74272764028812</v>
+        <v>51.74272764028809</v>
       </c>
       <c r="V43" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394112</v>
       </c>
       <c r="W43" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427953</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.1737096027776</v>
+        <v>137.1737096027775</v>
       </c>
       <c r="C44" t="n">
-        <v>113.2919666061231</v>
+        <v>113.291966606123</v>
       </c>
       <c r="D44" t="n">
         <v>100.8586288671715</v>
@@ -3986,7 +3986,7 @@
         <v>134.5653812865804</v>
       </c>
       <c r="F44" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649583</v>
       </c>
       <c r="G44" t="n">
         <v>181.9124400123664</v>
@@ -3995,7 +3995,7 @@
         <v>109.9829023064578</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080006904</v>
+        <v>3.625814080005739</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.23603454357587</v>
+        <v>13.23603454357584</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409622</v>
       </c>
       <c r="W44" t="n">
         <v>100.9829330507111</v>
       </c>
       <c r="X44" t="n">
-        <v>122.8691835196504</v>
+        <v>122.8691835196503</v>
       </c>
       <c r="Y44" t="n">
         <v>145.3720366433941</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.314109199509136</v>
+        <v>126.9175684903294</v>
       </c>
       <c r="V45" t="n">
-        <v>3.735390140346482</v>
+        <v>3.735390140346453</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>29.7910528019558</v>
       </c>
       <c r="X45" t="n">
-        <v>49.00140558645763</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028812</v>
+        <v>51.74272764028809</v>
       </c>
       <c r="V46" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394112</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427953</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.7677184288405</v>
+        <v>13.06902523257233</v>
       </c>
       <c r="C11" t="n">
-        <v>219.7677184288405</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D11" t="n">
-        <v>219.7677184288405</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E11" t="n">
-        <v>132.0690234120232</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F11" t="n">
-        <v>44.37032839520597</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G11" t="n">
-        <v>44.37032839520597</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520597</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I11" t="n">
         <v>6.945736645331927</v>
@@ -5045,13 +5045,13 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L11" t="n">
-        <v>55.57291794545659</v>
+        <v>64.61088317316906</v>
       </c>
       <c r="M11" t="n">
-        <v>138.5559862811135</v>
+        <v>147.5939515088259</v>
       </c>
       <c r="N11" t="n">
-        <v>224.5094772670961</v>
+        <v>225.0773366292862</v>
       </c>
       <c r="O11" t="n">
         <v>261.3333412806138</v>
@@ -5066,25 +5066,25 @@
         <v>347.2868322665963</v>
       </c>
       <c r="S11" t="n">
-        <v>347.2868322665963</v>
+        <v>323.2969954304437</v>
       </c>
       <c r="T11" t="n">
-        <v>347.2868322665963</v>
+        <v>323.2969954304437</v>
       </c>
       <c r="U11" t="n">
-        <v>300.1549471191767</v>
+        <v>276.1651102830241</v>
       </c>
       <c r="V11" t="n">
-        <v>300.1549471191767</v>
+        <v>188.4664152662068</v>
       </c>
       <c r="W11" t="n">
-        <v>300.1549471191767</v>
+        <v>188.4664152662068</v>
       </c>
       <c r="X11" t="n">
-        <v>300.1549471191767</v>
+        <v>100.7677202493896</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.7677184288405</v>
+        <v>13.06902523257233</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.58442816141979</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C12" t="n">
-        <v>98.58442816141979</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D12" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E12" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F12" t="n">
         <v>6.945736645331927</v>
@@ -5121,7 +5121,7 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K12" t="n">
-        <v>45.95276840508914</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="L12" t="n">
         <v>89.4263593086486</v>
@@ -5145,25 +5145,25 @@
         <v>347.2868322665963</v>
       </c>
       <c r="S12" t="n">
-        <v>347.2868322665963</v>
+        <v>259.588137249779</v>
       </c>
       <c r="T12" t="n">
-        <v>335.7155098607667</v>
+        <v>176.4743729352751</v>
       </c>
       <c r="U12" t="n">
-        <v>301.6360745558388</v>
+        <v>142.3949376303472</v>
       </c>
       <c r="V12" t="n">
-        <v>264.1007999167317</v>
+        <v>104.8596629912401</v>
       </c>
       <c r="W12" t="n">
-        <v>200.2466741042819</v>
+        <v>41.00553717879024</v>
       </c>
       <c r="X12" t="n">
-        <v>186.283123178237</v>
+        <v>27.04198625274543</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.58442816141979</v>
+        <v>6.945736645331927</v>
       </c>
     </row>
     <row r="13">
@@ -5176,43 +5176,43 @@
         <v>6.945736645331927</v>
       </c>
       <c r="C13" t="n">
-        <v>43.60723651553868</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D13" t="n">
-        <v>43.60723651553868</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E13" t="n">
-        <v>43.60723651553868</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F13" t="n">
-        <v>43.60723651553868</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G13" t="n">
-        <v>43.60723651553868</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H13" t="n">
-        <v>43.60723651553868</v>
+        <v>44.2818695330615</v>
       </c>
       <c r="I13" t="n">
-        <v>82.01986348019577</v>
+        <v>49.88783353169013</v>
       </c>
       <c r="J13" t="n">
-        <v>82.01986348019577</v>
+        <v>49.88783353169013</v>
       </c>
       <c r="K13" t="n">
-        <v>167.9733544661784</v>
+        <v>49.88783353169013</v>
       </c>
       <c r="L13" t="n">
-        <v>167.9733544661784</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="M13" t="n">
-        <v>253.9268454521609</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="N13" t="n">
-        <v>307.7483064896379</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="O13" t="n">
-        <v>307.7483064896379</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="P13" t="n">
         <v>307.7483064896379</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>219.7677184288405</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="C14" t="n">
-        <v>219.7677184288405</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="D14" t="n">
-        <v>219.7677184288405</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="E14" t="n">
-        <v>219.7677184288405</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="F14" t="n">
-        <v>132.0690234120232</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="G14" t="n">
-        <v>44.37032839520596</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="H14" t="n">
-        <v>44.37032839520596</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I14" t="n">
         <v>6.945736645331927</v>
       </c>
       <c r="J14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.89922763131452</v>
       </c>
       <c r="K14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.89922763131452</v>
       </c>
       <c r="L14" t="n">
-        <v>55.57291794545659</v>
+        <v>141.5264089314392</v>
       </c>
       <c r="M14" t="n">
-        <v>138.5559862811135</v>
+        <v>225.0773366292862</v>
       </c>
       <c r="N14" t="n">
-        <v>224.5094772670961</v>
+        <v>311.0308276152688</v>
       </c>
       <c r="O14" t="n">
-        <v>310.4629682530787</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="P14" t="n">
-        <v>310.4629682530787</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="Q14" t="n">
         <v>347.2868322665963</v>
@@ -5309,19 +5309,19 @@
         <v>323.2969954304436</v>
       </c>
       <c r="U14" t="n">
-        <v>323.2969954304436</v>
+        <v>276.165110283024</v>
       </c>
       <c r="V14" t="n">
-        <v>235.5983004136264</v>
+        <v>188.4664152662068</v>
       </c>
       <c r="W14" t="n">
-        <v>235.5983004136264</v>
+        <v>188.4664152662068</v>
       </c>
       <c r="X14" t="n">
-        <v>235.5983004136264</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.7677184288405</v>
+        <v>182.3431266789664</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.86891884211692</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C15" t="n">
-        <v>24.86891884211692</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D15" t="n">
         <v>6.945736645331927</v>
@@ -5358,19 +5358,19 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K15" t="n">
-        <v>45.95276840508914</v>
+        <v>45.95276840508913</v>
       </c>
       <c r="L15" t="n">
-        <v>131.9062593910717</v>
+        <v>90.52050120316868</v>
       </c>
       <c r="M15" t="n">
-        <v>175.3798502946312</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="N15" t="n">
-        <v>261.3333412806138</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="O15" t="n">
-        <v>347.2868322665963</v>
+        <v>262.4274831751338</v>
       </c>
       <c r="P15" t="n">
         <v>347.2868322665963</v>
@@ -5379,28 +5379,28 @@
         <v>347.2868322665963</v>
       </c>
       <c r="R15" t="n">
-        <v>259.588137249779</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="S15" t="n">
         <v>259.588137249779</v>
       </c>
       <c r="T15" t="n">
-        <v>248.0168148439494</v>
+        <v>176.4743729352751</v>
       </c>
       <c r="U15" t="n">
-        <v>160.3181198271322</v>
+        <v>142.3949376303472</v>
       </c>
       <c r="V15" t="n">
-        <v>122.7828451880251</v>
+        <v>104.8596629912401</v>
       </c>
       <c r="W15" t="n">
-        <v>58.92871937557524</v>
+        <v>41.00553717879024</v>
       </c>
       <c r="X15" t="n">
-        <v>44.96516844953043</v>
+        <v>27.04198625274543</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.86891884211692</v>
+        <v>6.945736645331927</v>
       </c>
     </row>
     <row r="16">
@@ -5419,40 +5419,40 @@
         <v>43.60723651553868</v>
       </c>
       <c r="E16" t="n">
-        <v>43.60723651553868</v>
+        <v>104.8019657478953</v>
       </c>
       <c r="F16" t="n">
-        <v>43.60723651553868</v>
+        <v>104.8019657478953</v>
       </c>
       <c r="G16" t="n">
-        <v>43.60723651553868</v>
+        <v>104.8019657478953</v>
       </c>
       <c r="H16" t="n">
-        <v>43.60723651553868</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="I16" t="n">
-        <v>43.60723651553868</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="J16" t="n">
-        <v>126.4072390278045</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="K16" t="n">
-        <v>145.831776910569</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="L16" t="n">
-        <v>145.831776910569</v>
+        <v>135.8413245176727</v>
       </c>
       <c r="M16" t="n">
-        <v>145.831776910569</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="N16" t="n">
-        <v>145.831776910569</v>
+        <v>221.7948155036553</v>
       </c>
       <c r="O16" t="n">
-        <v>231.7852678965516</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="P16" t="n">
-        <v>231.7852678965516</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="Q16" t="n">
         <v>307.7483064896379</v>
@@ -5492,13 +5492,13 @@
         <v>230.2616036014674</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160037</v>
+        <v>214.4472147160036</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395818</v>
+        <v>211.1917528395817</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970904</v>
+        <v>173.8890662970903</v>
       </c>
       <c r="F17" t="n">
         <v>104.5456347259349</v>
@@ -5519,19 +5519,19 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L17" t="n">
-        <v>55.57291794545659</v>
+        <v>55.57291794545657</v>
       </c>
       <c r="M17" t="n">
         <v>138.5559862811135</v>
       </c>
       <c r="N17" t="n">
-        <v>216.0393714015738</v>
+        <v>216.0393714015737</v>
       </c>
       <c r="O17" t="n">
         <v>252.2953760529013</v>
       </c>
       <c r="P17" t="n">
-        <v>252.2953760529013</v>
+        <v>338.2488670388839</v>
       </c>
       <c r="Q17" t="n">
         <v>338.2488670388839</v>
@@ -5546,7 +5546,7 @@
         <v>338.2488670388839</v>
       </c>
       <c r="U17" t="n">
-        <v>347.2868322665963</v>
+        <v>338.2488670388839</v>
       </c>
       <c r="V17" t="n">
         <v>347.2868322665963</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.588137249779</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="C18" t="n">
-        <v>259.588137249779</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="D18" t="n">
-        <v>171.8894422329618</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8894422329618</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F18" t="n">
-        <v>171.8894422329618</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G18" t="n">
-        <v>171.8894422329618</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H18" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I18" t="n">
         <v>6.945736645331927</v>
@@ -5595,49 +5595,49 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K18" t="n">
-        <v>45.95276840508914</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="L18" t="n">
-        <v>131.9062593910717</v>
+        <v>90.52050120316868</v>
       </c>
       <c r="M18" t="n">
-        <v>217.8597503770543</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="N18" t="n">
-        <v>261.3333412806138</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="O18" t="n">
-        <v>347.2868322665963</v>
+        <v>262.4274831751338</v>
       </c>
       <c r="P18" t="n">
         <v>347.2868322665963</v>
       </c>
       <c r="Q18" t="n">
-        <v>347.2868322665963</v>
+        <v>341.1897938556114</v>
       </c>
       <c r="R18" t="n">
-        <v>347.2868322665963</v>
+        <v>253.4910988387941</v>
       </c>
       <c r="S18" t="n">
-        <v>347.2868322665963</v>
+        <v>253.4910988387941</v>
       </c>
       <c r="T18" t="n">
-        <v>347.2868322665963</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="U18" t="n">
-        <v>347.2868322665963</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="V18" t="n">
-        <v>347.2868322665963</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="W18" t="n">
-        <v>347.2868322665963</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="X18" t="n">
-        <v>347.2868322665963</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.588137249779</v>
+        <v>6.945736645331927</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.2616036014667</v>
+        <v>230.2616036014672</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160029</v>
+        <v>214.4472147160035</v>
       </c>
       <c r="D20" t="n">
-        <v>211.191752839581</v>
+        <v>211.1917528395816</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970896</v>
+        <v>173.8890662970902</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259342</v>
+        <v>104.5456347259348</v>
       </c>
       <c r="G20" t="n">
         <v>19.41763633921465</v>
@@ -5756,34 +5756,34 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L20" t="n">
-        <v>55.57291794545659</v>
+        <v>55.57291794545657</v>
       </c>
       <c r="M20" t="n">
-        <v>138.5559862811135</v>
+        <v>141.5264089314392</v>
       </c>
       <c r="N20" t="n">
-        <v>216.0393714015738</v>
+        <v>219.0097940518994</v>
       </c>
       <c r="O20" t="n">
-        <v>252.2953760529013</v>
+        <v>255.265798703227</v>
       </c>
       <c r="P20" t="n">
-        <v>252.2953760529013</v>
+        <v>255.265798703227</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.2953760529013</v>
+        <v>255.265798703227</v>
       </c>
       <c r="R20" t="n">
-        <v>252.2953760529013</v>
+        <v>255.265798703227</v>
       </c>
       <c r="S20" t="n">
-        <v>338.2488670388839</v>
+        <v>341.2192896892096</v>
       </c>
       <c r="T20" t="n">
-        <v>338.2488670388839</v>
+        <v>341.2192896892096</v>
       </c>
       <c r="U20" t="n">
-        <v>347.2868322665963</v>
+        <v>341.2192896892096</v>
       </c>
       <c r="V20" t="n">
         <v>347.2868322665963</v>
@@ -5792,10 +5792,10 @@
         <v>343.9058106088214</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450472</v>
+        <v>318.4174652450471</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.1989652108247</v>
+        <v>270.1989652108245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>171.8894422329618</v>
+        <v>84.19074721614453</v>
       </c>
       <c r="C21" t="n">
         <v>84.19074721614453</v>
@@ -5814,13 +5814,13 @@
         <v>84.19074721614453</v>
       </c>
       <c r="E21" t="n">
-        <v>84.19074721614453</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="F21" t="n">
-        <v>84.19074721614453</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="G21" t="n">
-        <v>84.19074721614453</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="H21" t="n">
         <v>6.945736645331927</v>
@@ -5832,19 +5832,19 @@
         <v>6.945736645331927</v>
       </c>
       <c r="K21" t="n">
-        <v>45.95276840508914</v>
+        <v>45.95276840508913</v>
       </c>
       <c r="L21" t="n">
-        <v>131.9062593910717</v>
+        <v>45.95276840508913</v>
       </c>
       <c r="M21" t="n">
-        <v>217.8597503770543</v>
+        <v>90.52050120316868</v>
       </c>
       <c r="N21" t="n">
-        <v>303.8132413630369</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="O21" t="n">
-        <v>303.8132413630369</v>
+        <v>262.4274831751338</v>
       </c>
       <c r="P21" t="n">
         <v>347.2868322665963</v>
@@ -5862,7 +5862,7 @@
         <v>259.588137249779</v>
       </c>
       <c r="U21" t="n">
-        <v>259.588137249779</v>
+        <v>171.8894422329618</v>
       </c>
       <c r="V21" t="n">
         <v>171.8894422329618</v>
@@ -5874,7 +5874,7 @@
         <v>171.8894422329618</v>
       </c>
       <c r="Y21" t="n">
-        <v>171.8894422329618</v>
+        <v>84.19074721614453</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2616036014674</v>
+        <v>230.2616036014671</v>
       </c>
       <c r="C23" t="n">
-        <v>214.4472147160036</v>
+        <v>214.4472147160032</v>
       </c>
       <c r="D23" t="n">
-        <v>211.1917528395817</v>
+        <v>211.1917528395814</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8890662970903</v>
+        <v>173.8890662970901</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5456347259349</v>
+        <v>104.5456347259347</v>
       </c>
       <c r="G23" t="n">
         <v>19.41763633921465</v>
       </c>
       <c r="H23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I23" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J23" t="n">
-        <v>15.98370187304435</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K23" t="n">
-        <v>15.98370187304435</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="L23" t="n">
-        <v>64.61088317316901</v>
+        <v>55.57291794545657</v>
       </c>
       <c r="M23" t="n">
-        <v>147.5939515088259</v>
+        <v>138.5559862811135</v>
       </c>
       <c r="N23" t="n">
-        <v>225.0773366292862</v>
+        <v>216.0393714015737</v>
       </c>
       <c r="O23" t="n">
-        <v>261.3333412806138</v>
+        <v>261.3333412806136</v>
       </c>
       <c r="P23" t="n">
-        <v>261.3333412806138</v>
+        <v>261.3333412806136</v>
       </c>
       <c r="Q23" t="n">
-        <v>261.3333412806138</v>
+        <v>261.3333412806136</v>
       </c>
       <c r="R23" t="n">
-        <v>261.3333412806138</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="S23" t="n">
-        <v>261.3333412806138</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="T23" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="U23" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="V23" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="W23" t="n">
-        <v>343.9058106088214</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X23" t="n">
-        <v>318.4174652450471</v>
+        <v>318.4174652450469</v>
       </c>
       <c r="Y23" t="n">
-        <v>270.1989652108247</v>
+        <v>270.1989652108244</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="C24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="D24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="E24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="F24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="G24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="H24" t="n">
-        <v>94.64443166214917</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I24" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J24" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K24" t="n">
-        <v>6.945736645331927</v>
+        <v>45.95276840508913</v>
       </c>
       <c r="L24" t="n">
-        <v>6.945736645331927</v>
+        <v>45.95276840508913</v>
       </c>
       <c r="M24" t="n">
-        <v>92.89922763131452</v>
+        <v>131.9062593910717</v>
       </c>
       <c r="N24" t="n">
-        <v>178.8527186172971</v>
+        <v>217.8597503770542</v>
       </c>
       <c r="O24" t="n">
-        <v>264.8062096032797</v>
+        <v>262.4274831751337</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2868322665963</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="Q24" t="n">
-        <v>341.1897938556114</v>
+        <v>347.2868322665962</v>
       </c>
       <c r="R24" t="n">
-        <v>253.4910988387941</v>
+        <v>259.5881372497789</v>
       </c>
       <c r="S24" t="n">
-        <v>253.4910988387941</v>
+        <v>171.8894422329617</v>
       </c>
       <c r="T24" t="n">
-        <v>253.4910988387941</v>
+        <v>84.19074721614449</v>
       </c>
       <c r="U24" t="n">
-        <v>253.4910988387941</v>
+        <v>84.19074721614449</v>
       </c>
       <c r="V24" t="n">
-        <v>253.4910988387941</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="W24" t="n">
-        <v>253.4910988387941</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="X24" t="n">
-        <v>253.4910988387941</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.3431266789664</v>
+        <v>6.945736645331923</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="C25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="D25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="E25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="F25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="G25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="H25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="I25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="J25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="K25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="L25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="M25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="N25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="O25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="P25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="R25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="S25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="T25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="U25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="V25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="W25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="X25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.945736645331927</v>
+        <v>6.945736645331923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794676</v>
+        <v>886.2749037794689</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922964</v>
+        <v>760.0801040922977</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8380797390556</v>
+        <v>599.8380797390569</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5553103571508</v>
+        <v>407.5553103571519</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596817</v>
+        <v>199.4879741596827</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07673665505004</v>
+        <v>64.07673665504998</v>
       </c>
       <c r="I26" t="n">
         <v>36.09690139935933</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8193014227423</v>
+        <v>171.8193014227424</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4069368927943</v>
+        <v>377.4069368927944</v>
       </c>
       <c r="L26" t="n">
         <v>636.7450330653273</v>
@@ -6236,7 +6236,7 @@
         <v>930.4390162733928</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.633316266262</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O26" t="n">
         <v>1465.600235789997</v>
@@ -6248,13 +6248,13 @@
         <v>1786.308055083433</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.845069967967</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S26" t="n">
         <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
         <v>1742.943003976964</v>
@@ -6269,7 +6269,7 @@
         <v>1359.06316774076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895788</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.928285770169</v>
+        <v>142.114033396524</v>
       </c>
       <c r="C27" t="n">
-        <v>47.928285770169</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D27" t="n">
-        <v>47.928285770169</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E27" t="n">
-        <v>47.928285770169</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F27" t="n">
-        <v>47.928285770169</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G27" t="n">
         <v>36.09690139935933</v>
@@ -6315,40 +6315,40 @@
         <v>377.1545813717195</v>
       </c>
       <c r="N27" t="n">
-        <v>583.740593904546</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O27" t="n">
-        <v>716.979353158208</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496705</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7416638386856</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="R27" t="n">
-        <v>795.7416638386856</v>
+        <v>660.0705060055736</v>
       </c>
       <c r="S27" t="n">
-        <v>602.3381054037261</v>
+        <v>660.0705060055736</v>
       </c>
       <c r="T27" t="n">
-        <v>600.2115394920799</v>
+        <v>657.9439400939274</v>
       </c>
       <c r="U27" t="n">
-        <v>575.5768606813352</v>
+        <v>633.3092612831829</v>
       </c>
       <c r="V27" t="n">
-        <v>332.4971425849693</v>
+        <v>605.2187431382592</v>
       </c>
       <c r="W27" t="n">
-        <v>278.0877732667028</v>
+        <v>335.8201738685506</v>
       </c>
       <c r="X27" t="n">
-        <v>273.5689788348413</v>
+        <v>331.3013794366892</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.928285770169</v>
+        <v>320.649886323459</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>36.09690139935933</v>
       </c>
       <c r="D28" t="n">
-        <v>52.71087522818746</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E28" t="n">
-        <v>52.71087522818746</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F28" t="n">
-        <v>52.71087522818746</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L28" t="n">
-        <v>96.41344166368933</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="M28" t="n">
-        <v>96.41344166368933</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="N28" t="n">
-        <v>96.41344166368933</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7861757843819</v>
+        <v>117.3137017330129</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0555205723506</v>
+        <v>248.0555205723502</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093604</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634856</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8681250922513</v>
+        <v>127.8681250922511</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61418656961739</v>
+        <v>49.61418656961726</v>
       </c>
       <c r="X28" t="n">
-        <v>40.4423204521277</v>
+        <v>40.44232045212763</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09690139935933</v>
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794683</v>
+        <v>886.2749037794689</v>
       </c>
       <c r="D29" t="n">
-        <v>760.080104092297</v>
+        <v>760.0801040922977</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390562</v>
+        <v>599.8380797390569</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571513</v>
+        <v>407.5553103571522</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596822</v>
+        <v>199.4879741596831</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07673665505001</v>
+        <v>64.07673665505119</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8193014227423</v>
+        <v>171.8193014227424</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4069368927931</v>
+        <v>377.4069368927944</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7450330653262</v>
+        <v>636.7450330653267</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4390162733916</v>
+        <v>930.4390162733921</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.63331626626</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O29" t="n">
         <v>1465.600235789997</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S29" t="n">
         <v>1790.299989625996</v>
@@ -6506,7 +6506,7 @@
         <v>1359.06316774076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.905329895788</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.4288826161134</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="C30" t="n">
-        <v>247.4288826161134</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="D30" t="n">
-        <v>163.0387910040596</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="E30" t="n">
-        <v>163.0387910040596</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0387910040596</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0387910040596</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="K30" t="n">
         <v>75.10393315911652</v>
@@ -6552,40 +6552,40 @@
         <v>377.1545813717195</v>
       </c>
       <c r="N30" t="n">
-        <v>583.740593904546</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O30" t="n">
-        <v>716.979353158208</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8387022496705</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8387022496705</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8387022496705</v>
+        <v>666.1675444165586</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8387022496705</v>
+        <v>666.1675444165586</v>
       </c>
       <c r="T30" t="n">
-        <v>799.7121363380243</v>
+        <v>664.0409785049123</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0774575272796</v>
+        <v>639.4062996941678</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9869393823559</v>
+        <v>396.3265815978019</v>
       </c>
       <c r="W30" t="n">
-        <v>477.5883701126472</v>
+        <v>341.9172122795355</v>
       </c>
       <c r="X30" t="n">
-        <v>473.0695756807858</v>
+        <v>261.7375944640316</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.4288826161134</v>
+        <v>36.09690139935932</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="I31" t="n">
-        <v>83.76633420396547</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J31" t="n">
-        <v>83.76633420396547</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="K31" t="n">
-        <v>83.76633420396547</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="L31" t="n">
-        <v>117.3137017330134</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="M31" t="n">
-        <v>117.3137017330134</v>
+        <v>185.5663313513462</v>
       </c>
       <c r="N31" t="n">
-        <v>117.3137017330134</v>
+        <v>185.5663313513462</v>
       </c>
       <c r="O31" t="n">
-        <v>117.3137017330134</v>
+        <v>185.5663313513462</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7861757843819</v>
+        <v>185.5663313513462</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0555205723506</v>
+        <v>248.0555205723502</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093604</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634856</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8681250922513</v>
+        <v>127.8681250922511</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61418656961736</v>
+        <v>49.61418656961725</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44232045212767</v>
+        <v>40.44232045212762</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1025.028630475682</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794689</v>
+        <v>886.2749037794683</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922977</v>
+        <v>760.080104092297</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8380797390569</v>
+        <v>599.8380797390562</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5553103571519</v>
+        <v>407.5553103571514</v>
       </c>
       <c r="G32" t="n">
-        <v>199.487974159682</v>
+        <v>199.4879741596822</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665504993</v>
+        <v>64.07673665505004</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227424</v>
+        <v>171.819301422742</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927944</v>
+        <v>377.406936892794</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653276</v>
+        <v>636.745033065327</v>
       </c>
       <c r="M32" t="n">
-        <v>930.439016273393</v>
+        <v>930.4390162733923</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.633316266262</v>
+        <v>1218.633316266261</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.600235789998</v>
+        <v>1465.600235789997</v>
       </c>
       <c r="P32" t="n">
         <v>1663.107239204596</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S32" t="n">
         <v>1790.299989625996</v>
@@ -6743,7 +6743,7 @@
         <v>1359.06316774076</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.905329895789</v>
+        <v>1187.905329895788</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>326.7469247344441</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="C33" t="n">
-        <v>137.3346504674078</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="D33" t="n">
-        <v>137.3346504674078</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="E33" t="n">
-        <v>137.3346504674078</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="F33" t="n">
-        <v>137.3346504674078</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="K33" t="n">
         <v>75.10393315911652</v>
@@ -6789,40 +6789,40 @@
         <v>377.1545813717195</v>
       </c>
       <c r="N33" t="n">
-        <v>583.740593904546</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O33" t="n">
-        <v>716.979353158208</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8387022496705</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8387022496705</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="R33" t="n">
-        <v>666.1675444165587</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="S33" t="n">
-        <v>666.1675444165587</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="T33" t="n">
-        <v>449.0517785534702</v>
+        <v>799.712136338024</v>
       </c>
       <c r="U33" t="n">
-        <v>424.4170997427257</v>
+        <v>563.7454763105256</v>
       </c>
       <c r="V33" t="n">
-        <v>396.3265815978021</v>
+        <v>320.6657582141597</v>
       </c>
       <c r="W33" t="n">
-        <v>341.9172122795356</v>
+        <v>51.26718894445104</v>
       </c>
       <c r="X33" t="n">
-        <v>337.3984178476742</v>
+        <v>46.74839451258953</v>
       </c>
       <c r="Y33" t="n">
-        <v>326.7469247344441</v>
+        <v>36.09690139935932</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="J34" t="n">
-        <v>128.1537097515743</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="K34" t="n">
-        <v>128.1537097515743</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="L34" t="n">
-        <v>128.1537097515743</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="M34" t="n">
-        <v>128.1537097515743</v>
+        <v>36.09690139935932</v>
       </c>
       <c r="N34" t="n">
-        <v>128.1537097515743</v>
+        <v>86.85454203663971</v>
       </c>
       <c r="O34" t="n">
-        <v>128.1537097515743</v>
+        <v>261.2272761573322</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7861757843813</v>
+        <v>261.2272761573322</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7861757843813</v>
+        <v>261.2272761573322</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7861757843813</v>
+        <v>270.7861757843821</v>
       </c>
       <c r="S34" t="n">
-        <v>248.05552057235</v>
+        <v>248.0555205723508</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0465672093603</v>
+        <v>237.0465672093609</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4637889634855</v>
+        <v>160.4637889634859</v>
       </c>
       <c r="V34" t="n">
-        <v>127.868125092251</v>
+        <v>127.8681250922514</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61418656961719</v>
+        <v>49.61418656961743</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44232045212759</v>
+        <v>40.44232045212771</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935932</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>847.8611162930808</v>
+        <v>847.8611162930811</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879057</v>
+        <v>733.4247863879059</v>
       </c>
       <c r="D35" t="n">
-        <v>631.5473834917727</v>
+        <v>631.547383491773</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295703</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F35" t="n">
-        <v>327.6573833387039</v>
+        <v>327.6573833387041</v>
       </c>
       <c r="G35" t="n">
-        <v>143.9074439322731</v>
+        <v>143.9074439322733</v>
       </c>
       <c r="H35" t="n">
         <v>32.81360321867974</v>
@@ -6938,34 +6938,34 @@
         <v>188.7070453723071</v>
       </c>
       <c r="K35" t="n">
-        <v>350.8111257709108</v>
+        <v>418.1281614372558</v>
       </c>
       <c r="L35" t="n">
-        <v>399.4383070710355</v>
+        <v>466.7553427373804</v>
       </c>
       <c r="M35" t="n">
-        <v>716.9657708739976</v>
+        <v>784.2828065403424</v>
       </c>
       <c r="N35" t="n">
-        <v>1028.993551461763</v>
+        <v>861.7661916608027</v>
       </c>
       <c r="O35" t="n">
-        <v>1065.249556113091</v>
+        <v>1046.812961738711</v>
       </c>
       <c r="P35" t="n">
-        <v>1286.590040122586</v>
+        <v>1268.153445748206</v>
       </c>
       <c r="Q35" t="n">
-        <v>1433.62433659632</v>
+        <v>1415.18774222194</v>
       </c>
       <c r="R35" t="n">
-        <v>1433.62433659632</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="S35" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="T35" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U35" t="n">
         <v>1444.188505839172</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.15116475402739</v>
+        <v>214.520107572359</v>
       </c>
       <c r="C36" t="n">
         <v>29.15116475402739</v>
@@ -7017,49 +7017,49 @@
         <v>29.15116475402739</v>
       </c>
       <c r="K36" t="n">
-        <v>68.1581965137846</v>
+        <v>68.15819651378459</v>
       </c>
       <c r="L36" t="n">
-        <v>186.8945068160899</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M36" t="n">
         <v>370.2088447263876</v>
       </c>
       <c r="N36" t="n">
-        <v>576.7948572592142</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O36" t="n">
-        <v>710.0336165128762</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P36" t="n">
-        <v>794.8929656043387</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.7959271933537</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="R36" t="n">
-        <v>653.1247693602419</v>
+        <v>659.2218077712267</v>
       </c>
       <c r="S36" t="n">
-        <v>459.7212109252824</v>
+        <v>465.8182493362673</v>
       </c>
       <c r="T36" t="n">
-        <v>242.605445062194</v>
+        <v>248.7024834731788</v>
       </c>
       <c r="U36" t="n">
-        <v>63.01625863514095</v>
+        <v>248.3852014534725</v>
       </c>
       <c r="V36" t="n">
-        <v>59.24313728125556</v>
+        <v>244.6120800995872</v>
       </c>
       <c r="W36" t="n">
-        <v>29.15116475402739</v>
+        <v>214.520107572359</v>
       </c>
       <c r="X36" t="n">
-        <v>29.15116475402739</v>
+        <v>214.520107572359</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.15116475402739</v>
+        <v>214.520107572359</v>
       </c>
     </row>
     <row r="37">
@@ -7078,49 +7078,49 @@
         <v>29.15116475402739</v>
       </c>
       <c r="E37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="F37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="G37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="H37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="I37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="J37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="K37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="L37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="M37" t="n">
-        <v>29.15116475402739</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="N37" t="n">
-        <v>110.238974798709</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="O37" t="n">
-        <v>110.238974798709</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="P37" t="n">
-        <v>110.238974798709</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.238974798709</v>
+        <v>97.19536939487872</v>
       </c>
       <c r="R37" t="n">
-        <v>143.6313550206557</v>
+        <v>130.5877496168254</v>
       </c>
       <c r="S37" t="n">
-        <v>143.6313550206557</v>
+        <v>130.5877496168254</v>
       </c>
       <c r="T37" t="n">
         <v>143.6313550206557</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930811</v>
+        <v>847.8611162930805</v>
       </c>
       <c r="C38" t="n">
-        <v>733.4247863879062</v>
+        <v>733.4247863879057</v>
       </c>
       <c r="D38" t="n">
-        <v>631.5473834917734</v>
+        <v>631.5473834917727</v>
       </c>
       <c r="E38" t="n">
-        <v>495.622755929571</v>
+        <v>495.6227559295703</v>
       </c>
       <c r="F38" t="n">
-        <v>327.6573833387047</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G38" t="n">
-        <v>143.907443932274</v>
+        <v>143.9074439322735</v>
       </c>
       <c r="H38" t="n">
-        <v>32.81360321867968</v>
+        <v>32.81360321867972</v>
       </c>
       <c r="I38" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J38" t="n">
-        <v>29.15116475402739</v>
+        <v>188.7070453723071</v>
       </c>
       <c r="K38" t="n">
-        <v>29.15116475402739</v>
+        <v>418.1281614372557</v>
       </c>
       <c r="L38" t="n">
-        <v>312.3227415214573</v>
+        <v>578.4082956011008</v>
       </c>
       <c r="M38" t="n">
-        <v>629.8502053244194</v>
+        <v>661.3913639367577</v>
       </c>
       <c r="N38" t="n">
-        <v>941.877985912185</v>
+        <v>973.4191445245231</v>
       </c>
       <c r="O38" t="n">
-        <v>1022.879060633661</v>
+        <v>1244.219544643156</v>
       </c>
       <c r="P38" t="n">
         <v>1244.219544643156</v>
@@ -7196,7 +7196,7 @@
         <v>1391.25384111689</v>
       </c>
       <c r="R38" t="n">
-        <v>1433.62433659632</v>
+        <v>1433.624336596319</v>
       </c>
       <c r="S38" t="n">
         <v>1443.202183948052</v>
@@ -7205,7 +7205,7 @@
         <v>1457.558237701369</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839172</v>
+        <v>1444.188505839171</v>
       </c>
       <c r="V38" t="n">
         <v>1359.374109037054</v>
@@ -7214,10 +7214,10 @@
         <v>1257.371146359568</v>
       </c>
       <c r="X38" t="n">
-        <v>1133.260859976083</v>
+        <v>1133.260859976082</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.4204189221493</v>
+        <v>986.4204189221488</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>156.0930543587277</v>
+        <v>58.88459194448416</v>
       </c>
       <c r="C39" t="n">
-        <v>156.0930543587277</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D39" t="n">
-        <v>156.0930543587277</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0930543587277</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F39" t="n">
-        <v>156.0930543587277</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="G39" t="n">
-        <v>156.0930543587277</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="I39" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J39" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K39" t="n">
-        <v>68.1581965137846</v>
+        <v>68.15819651378459</v>
       </c>
       <c r="L39" t="n">
-        <v>186.8945068160899</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M39" t="n">
         <v>370.2088447263876</v>
       </c>
       <c r="N39" t="n">
-        <v>576.7948572592142</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O39" t="n">
-        <v>710.0336165128762</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P39" t="n">
-        <v>794.8929656043387</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q39" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="R39" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="S39" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="T39" t="n">
-        <v>794.8929656043387</v>
+        <v>571.680161330265</v>
       </c>
       <c r="U39" t="n">
-        <v>555.2690868421519</v>
+        <v>332.0562825680782</v>
       </c>
       <c r="V39" t="n">
-        <v>364.7208798128909</v>
+        <v>328.2831612141928</v>
       </c>
       <c r="W39" t="n">
-        <v>334.6289072856628</v>
+        <v>58.88459194448416</v>
       </c>
       <c r="X39" t="n">
-        <v>334.6289072856628</v>
+        <v>58.88459194448416</v>
       </c>
       <c r="Y39" t="n">
-        <v>334.6289072856628</v>
+        <v>58.88459194448416</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="G40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="H40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="I40" t="n">
-        <v>100.6540781535303</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J40" t="n">
-        <v>100.6540781535303</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K40" t="n">
-        <v>100.6540781535303</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="L40" t="n">
-        <v>100.6540781535303</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="M40" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="N40" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="O40" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="P40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U40" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581912</v>
       </c>
       <c r="V40" t="n">
-        <v>83.0877064856229</v>
+        <v>83.08770648562296</v>
       </c>
       <c r="W40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="X40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.8611162930808</v>
+        <v>847.8611162930806</v>
       </c>
       <c r="C41" t="n">
-        <v>733.424786387906</v>
+        <v>733.4247863879056</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917732</v>
+        <v>631.5473834917727</v>
       </c>
       <c r="E41" t="n">
-        <v>495.6227559295708</v>
+        <v>495.6227559295704</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387044</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G41" t="n">
-        <v>143.9074439322734</v>
+        <v>143.9074439322733</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867968</v>
+        <v>32.81360321867964</v>
       </c>
       <c r="I41" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J41" t="n">
-        <v>97.83013592922555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K41" t="n">
-        <v>97.83013592922555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="L41" t="n">
-        <v>381.0017126966554</v>
+        <v>312.3227415214573</v>
       </c>
       <c r="M41" t="n">
-        <v>463.9847810323123</v>
+        <v>629.8502053244194</v>
       </c>
       <c r="N41" t="n">
-        <v>776.0125616200778</v>
+        <v>804.0270033461898</v>
       </c>
       <c r="O41" t="n">
-        <v>1046.812961738711</v>
+        <v>1074.827403464823</v>
       </c>
       <c r="P41" t="n">
-        <v>1268.153445748206</v>
+        <v>1296.167887474318</v>
       </c>
       <c r="Q41" t="n">
-        <v>1415.18774222194</v>
+        <v>1443.202183948052</v>
       </c>
       <c r="R41" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948052</v>
       </c>
       <c r="S41" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948052</v>
       </c>
       <c r="T41" t="n">
         <v>1457.558237701369</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.188505839172</v>
+        <v>1444.188505839171</v>
       </c>
       <c r="V41" t="n">
-        <v>1359.374109037054</v>
+        <v>1359.374109037053</v>
       </c>
       <c r="W41" t="n">
-        <v>1257.371146359568</v>
+        <v>1257.371146359567</v>
       </c>
       <c r="X41" t="n">
-        <v>1133.260859976083</v>
+        <v>1133.260859976082</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221491</v>
+        <v>986.4204189221489</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>78.64753403327751</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C42" t="n">
-        <v>78.64753403327751</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D42" t="n">
-        <v>78.64753403327751</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E42" t="n">
-        <v>78.64753403327751</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F42" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="G42" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="H42" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="I42" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J42" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K42" t="n">
-        <v>68.1581965137846</v>
+        <v>68.15819651378459</v>
       </c>
       <c r="L42" t="n">
-        <v>186.8945068160899</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M42" t="n">
         <v>370.2088447263876</v>
       </c>
       <c r="N42" t="n">
-        <v>576.7948572592142</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O42" t="n">
-        <v>710.0336165128762</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P42" t="n">
-        <v>794.8929656043387</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q42" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="R42" t="n">
-        <v>794.8929656043387</v>
+        <v>653.1247693602418</v>
       </c>
       <c r="S42" t="n">
-        <v>794.8929656043387</v>
+        <v>541.9467341398081</v>
       </c>
       <c r="T42" t="n">
-        <v>577.7771997412501</v>
+        <v>541.9467341398081</v>
       </c>
       <c r="U42" t="n">
-        <v>577.4599177215439</v>
+        <v>541.629452120102</v>
       </c>
       <c r="V42" t="n">
-        <v>334.380199625178</v>
+        <v>298.5497340237361</v>
       </c>
       <c r="W42" t="n">
-        <v>304.2882270979499</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="X42" t="n">
-        <v>304.2882270979499</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.64753403327751</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="G43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="H43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="I43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="L43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="M43" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="N43" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6313550206555</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="P43" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="R43" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="U43" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581895</v>
       </c>
       <c r="V43" t="n">
-        <v>83.0877064856229</v>
+        <v>83.08770648562287</v>
       </c>
       <c r="W43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="X43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8611162930812</v>
+        <v>847.8611162930813</v>
       </c>
       <c r="C44" t="n">
-        <v>733.4247863879064</v>
+        <v>733.4247863879066</v>
       </c>
       <c r="D44" t="n">
-        <v>631.5473834917738</v>
+        <v>631.5473834917736</v>
       </c>
       <c r="E44" t="n">
-        <v>495.6227559295713</v>
+        <v>495.622755929571</v>
       </c>
       <c r="F44" t="n">
-        <v>327.6573833387049</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G44" t="n">
-        <v>143.9074439322749</v>
+        <v>143.9074439322733</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321868083</v>
+        <v>32.81360321867964</v>
       </c>
       <c r="I44" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J44" t="n">
-        <v>79.01951422653252</v>
+        <v>188.7070453723072</v>
       </c>
       <c r="K44" t="n">
-        <v>308.4406302914812</v>
+        <v>418.1281614372559</v>
       </c>
       <c r="L44" t="n">
-        <v>357.0678115916059</v>
+        <v>701.2997382046858</v>
       </c>
       <c r="M44" t="n">
-        <v>674.595275394568</v>
+        <v>1018.827202007648</v>
       </c>
       <c r="N44" t="n">
-        <v>986.6230559823335</v>
+        <v>1096.310587128108</v>
       </c>
       <c r="O44" t="n">
-        <v>1022.879060633661</v>
+        <v>1258.575598396472</v>
       </c>
       <c r="P44" t="n">
-        <v>1244.219544643156</v>
+        <v>1258.575598396472</v>
       </c>
       <c r="Q44" t="n">
-        <v>1391.25384111689</v>
+        <v>1405.609894870206</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.62433659632</v>
+        <v>1447.980390349636</v>
       </c>
       <c r="S44" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.558237701369</v>
       </c>
       <c r="T44" t="n">
         <v>1457.558237701369</v>
@@ -7691,7 +7691,7 @@
         <v>1133.260859976083</v>
       </c>
       <c r="Y44" t="n">
-        <v>986.4204189221495</v>
+        <v>986.4204189221496</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="G45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="H45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="I45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="J45" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="K45" t="n">
-        <v>68.1581965137846</v>
+        <v>68.15819651378459</v>
       </c>
       <c r="L45" t="n">
-        <v>186.8945068160899</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M45" t="n">
         <v>370.2088447263876</v>
       </c>
       <c r="N45" t="n">
-        <v>576.7948572592142</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O45" t="n">
-        <v>710.0336165128762</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P45" t="n">
-        <v>794.8929656043387</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q45" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="R45" t="n">
-        <v>794.8929656043387</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="S45" t="n">
-        <v>794.8929656043387</v>
+        <v>595.3923687583941</v>
       </c>
       <c r="T45" t="n">
-        <v>577.7771997412501</v>
+        <v>595.3923687583941</v>
       </c>
       <c r="U45" t="n">
-        <v>577.4599177215439</v>
+        <v>467.1928046267482</v>
       </c>
       <c r="V45" t="n">
-        <v>573.6867963676585</v>
+        <v>463.4196832728629</v>
       </c>
       <c r="W45" t="n">
-        <v>304.2882270979499</v>
+        <v>433.3277107456348</v>
       </c>
       <c r="X45" t="n">
-        <v>254.7918578186997</v>
+        <v>433.3277107456348</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.15116475402739</v>
+        <v>207.6870176809625</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="C46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="D46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="E46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="F46" t="n">
-        <v>29.15116475402739</v>
+        <v>126.1579468250704</v>
       </c>
       <c r="G46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="H46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="I46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="J46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="K46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="L46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="M46" t="n">
-        <v>29.15116475402739</v>
+        <v>130.587749616825</v>
       </c>
       <c r="N46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="P46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206555</v>
+        <v>130.587749616825</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206554</v>
       </c>
       <c r="U46" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581895</v>
       </c>
       <c r="V46" t="n">
-        <v>83.0877064856229</v>
+        <v>83.08770648562287</v>
       </c>
       <c r="W46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="X46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.15116475402739</v>
+        <v>29.15116475402738</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2815948690196</v>
+        <v>203.6826370505925</v>
       </c>
       <c r="M12" t="n">
         <v>203.4325914874594</v>
       </c>
       <c r="N12" t="n">
-        <v>188.7628267091237</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O12" t="n">
         <v>207.4598856512405</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>207.1905848512651</v>
+        <v>165.3867887018681</v>
       </c>
       <c r="M15" t="n">
-        <v>160.5236015052138</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N15" t="n">
-        <v>188.7628267091237</v>
+        <v>101.9411186424747</v>
       </c>
       <c r="O15" t="n">
         <v>207.4598856512405</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6473598448788</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L18" t="n">
-        <v>207.1905848512651</v>
+        <v>204.787830883441</v>
       </c>
       <c r="M18" t="n">
         <v>203.4325914874594</v>
       </c>
       <c r="N18" t="n">
-        <v>145.8538367268781</v>
+        <v>101.9411186424747</v>
       </c>
       <c r="O18" t="n">
         <v>207.4598856512405</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6473598448788</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>207.1905848512651</v>
+        <v>120.368876784616</v>
       </c>
       <c r="M21" t="n">
-        <v>203.4325914874594</v>
+        <v>161.6287953380624</v>
       </c>
       <c r="N21" t="n">
-        <v>188.7628267091237</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O21" t="n">
-        <v>120.6381775845914</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P21" t="n">
-        <v>164.5600779292823</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.972431402578</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>120.368876784616</v>
@@ -9729,10 +9729,10 @@
         <v>188.7628267091237</v>
       </c>
       <c r="O24" t="n">
-        <v>207.4598856512405</v>
+        <v>165.6560895018434</v>
       </c>
       <c r="P24" t="n">
-        <v>203.9611201108552</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,16 +23258,16 @@
         <v>170.5982413551471</v>
       </c>
       <c r="C11" t="n">
-        <v>146.7164983584926</v>
+        <v>140.6544426571246</v>
       </c>
       <c r="D11" t="n">
         <v>134.283160619541</v>
       </c>
       <c r="E11" t="n">
-        <v>81.16820497230083</v>
+        <v>167.9899130389499</v>
       </c>
       <c r="F11" t="n">
-        <v>112.8885425506782</v>
+        <v>199.7102506173272</v>
       </c>
       <c r="G11" t="n">
         <v>215.3369717647359</v>
@@ -23276,7 +23276,7 @@
         <v>143.4074340588273</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.0503458323753</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.7499384677911</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>18.92346735507959</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864658</v>
+        <v>30.56907651981669</v>
       </c>
       <c r="W11" t="n">
         <v>134.4074648030806</v>
       </c>
       <c r="X11" t="n">
-        <v>156.2937152720199</v>
+        <v>69.4720072053708</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.21321199233074</v>
+        <v>91.97486032911456</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.5982413551471</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C14" t="n">
         <v>146.7164983584926</v>
@@ -23504,16 +23504,16 @@
         <v>167.9899130389499</v>
       </c>
       <c r="F14" t="n">
-        <v>112.8885425506782</v>
+        <v>199.7102506173272</v>
       </c>
       <c r="G14" t="n">
-        <v>128.5152636980868</v>
+        <v>215.3369717647359</v>
       </c>
       <c r="H14" t="n">
-        <v>143.4074340588273</v>
+        <v>56.58572599217823</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.05034583237529</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>18.92346735507959</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594539</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>30.56907651981669</v>
@@ -23558,10 +23558,10 @@
         <v>134.4074648030806</v>
       </c>
       <c r="X14" t="n">
-        <v>156.2937152720199</v>
+        <v>150.2316595706519</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.1242922308255</v>
+        <v>178.7965683957636</v>
       </c>
     </row>
     <row r="15">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-5.728393788912891e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-6.763536726220479e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875586.5516622112</v>
+        <v>875586.5516622113</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875586.5516622112</v>
+        <v>875586.5516622111</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639400.6965029334</v>
+        <v>639400.6965029333</v>
       </c>
       <c r="C2" t="n">
+        <v>639400.6965029332</v>
+      </c>
+      <c r="D2" t="n">
         <v>639400.696502933</v>
       </c>
-      <c r="D2" t="n">
-        <v>639400.6965029329</v>
-      </c>
       <c r="E2" t="n">
+        <v>550992.8145398477</v>
+      </c>
+      <c r="F2" t="n">
         <v>550992.8145398475</v>
-      </c>
-      <c r="F2" t="n">
-        <v>550992.8145398478</v>
       </c>
       <c r="G2" t="n">
         <v>640695.9479224384</v>
       </c>
       <c r="H2" t="n">
-        <v>640695.9479224382</v>
+        <v>640695.9479224383</v>
       </c>
       <c r="I2" t="n">
-        <v>640695.9479224384</v>
+        <v>640695.9479224385</v>
       </c>
       <c r="J2" t="n">
-        <v>640695.947922438</v>
+        <v>640695.9479224377</v>
       </c>
       <c r="K2" t="n">
-        <v>640695.9479224382</v>
+        <v>640695.9479224379</v>
       </c>
       <c r="L2" t="n">
-        <v>640695.9479224376</v>
+        <v>640695.9479224379</v>
       </c>
       <c r="M2" t="n">
         <v>640695.9479224382</v>
       </c>
       <c r="N2" t="n">
-        <v>640695.9479224383</v>
+        <v>640695.947922438</v>
       </c>
       <c r="O2" t="n">
-        <v>640695.9479224382</v>
+        <v>640695.947922438</v>
       </c>
       <c r="P2" t="n">
         <v>640695.9479224383</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895068</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850231</v>
+        <v>19259.3782585024</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203548</v>
+        <v>65423.2436720356</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,19 +26439,19 @@
         <v>442672.8937875655</v>
       </c>
       <c r="J4" t="n">
-        <v>442256.8076974517</v>
+        <v>442256.8076974518</v>
       </c>
       <c r="K4" t="n">
         <v>442256.8076974517</v>
       </c>
       <c r="L4" t="n">
-        <v>442256.8076974518</v>
+        <v>442256.8076974517</v>
       </c>
       <c r="M4" t="n">
         <v>441867.4728269802</v>
       </c>
       <c r="N4" t="n">
-        <v>441867.4728269802</v>
+        <v>441867.4728269801</v>
       </c>
       <c r="O4" t="n">
         <v>441867.4728269802</v>
@@ -26488,28 +26488,28 @@
         <v>35675.68646773273</v>
       </c>
       <c r="I5" t="n">
-        <v>35675.68646773273</v>
+        <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
         <v>47598.53836228578</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.53836228578</v>
+        <v>47598.53836228577</v>
       </c>
       <c r="M5" t="n">
+        <v>44343.67435035106</v>
+      </c>
+      <c r="N5" t="n">
         <v>44343.67435035105</v>
       </c>
-      <c r="N5" t="n">
-        <v>44343.67435035106</v>
-      </c>
       <c r="O5" t="n">
-        <v>44343.67435035106</v>
+        <v>44343.67435035105</v>
       </c>
       <c r="P5" t="n">
-        <v>44343.67435035106</v>
+        <v>44343.67435035105</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127942.432972658</v>
+        <v>127937.9665884527</v>
       </c>
       <c r="C6" t="n">
-        <v>127942.4329726577</v>
+        <v>127937.9665884526</v>
       </c>
       <c r="D6" t="n">
-        <v>127942.4329726576</v>
+        <v>127937.9665884525</v>
       </c>
       <c r="E6" t="n">
-        <v>-118245.5015314075</v>
+        <v>-118554.8226810025</v>
       </c>
       <c r="F6" t="n">
-        <v>154188.7050841653</v>
+        <v>153879.3839345699</v>
       </c>
       <c r="G6" t="n">
         <v>57499.16497763343</v>
       </c>
       <c r="H6" t="n">
-        <v>162347.3676671399</v>
+        <v>162347.36766714</v>
       </c>
       <c r="I6" t="n">
-        <v>162347.3676671401</v>
+        <v>162347.3676671403</v>
       </c>
       <c r="J6" t="n">
-        <v>-9922.983695619296</v>
+        <v>-9922.983695619696</v>
       </c>
       <c r="K6" t="n">
-        <v>150840.6018627007</v>
+        <v>150840.6018627004</v>
       </c>
       <c r="L6" t="n">
-        <v>45992.39917319319</v>
+        <v>45992.39917319384</v>
       </c>
       <c r="M6" t="n">
         <v>135225.4224866046</v>
       </c>
       <c r="N6" t="n">
-        <v>154484.800745107</v>
+        <v>154484.8007451069</v>
       </c>
       <c r="O6" t="n">
-        <v>89061.5570730714</v>
+        <v>89061.55707307118</v>
       </c>
       <c r="P6" t="n">
-        <v>154484.800745107</v>
+        <v>154484.8007451071</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>334.5492523845696</v>
       </c>
       <c r="J2" t="n">
+        <v>212.8393079519278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>212.8393079519278</v>
+      </c>
+      <c r="L2" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="K2" t="n">
-        <v>212.8393079519277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>212.8393079519278</v>
       </c>
       <c r="M2" t="n">
         <v>236.9135307750557</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O2" t="n">
         <v>236.9135307750558</v>
@@ -26808,28 +26808,28 @@
         <v>86.82170806664908</v>
       </c>
       <c r="I4" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2112674919916</v>
+        <v>451.2112674919915</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2112674919914</v>
+        <v>451.2112674919915</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2112674919914</v>
+        <v>451.2112674919915</v>
       </c>
       <c r="M4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253422</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253422</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253422</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.77905459004435</v>
+        <v>81.77905459004441</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618835</v>
+        <v>131.0602533618833</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07422282312788</v>
+        <v>24.074222823128</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004435</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.3895594253426</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004435</v>
+        <v>81.77905459004441</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,22 +28114,22 @@
         <v>75.74597459497519</v>
       </c>
       <c r="K11" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>9.129257805770187</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.55566249042657</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.573595315343546</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>100.1589923674672</v>
+        <v>100.1589923674673</v>
       </c>
       <c r="Q11" t="n">
         <v>88.39403938744564</v>
@@ -28172,13 +28172,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>155.2717185423006</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>72.00173105327926</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7380757353064</v>
@@ -28190,7 +28190,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J12" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,16 +28211,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R12" t="n">
         <v>134.3144462547806</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4695228506098</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T12" t="n">
-        <v>203.4889990226862</v>
+        <v>132.6619815330987</v>
       </c>
       <c r="U12" t="n">
         <v>203.4889990226862</v>
@@ -28235,7 +28235,7 @@
         <v>203.4889990226862</v>
       </c>
       <c r="Y12" t="n">
-        <v>136.5625780673765</v>
+        <v>203.4889990226862</v>
       </c>
     </row>
     <row r="13">
@@ -28248,7 +28248,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>203.4889990226862</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28263,34 +28263,34 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7757334795251</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="I13" t="n">
-        <v>203.4889990226862</v>
+        <v>170.3509556226575</v>
       </c>
       <c r="J13" t="n">
         <v>119.8526328486804</v>
       </c>
       <c r="K13" t="n">
-        <v>153.2157698435603</v>
+        <v>66.39406177691127</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33805968349141</v>
+        <v>118.1597677501405</v>
       </c>
       <c r="M13" t="n">
         <v>111.1805812651692</v>
       </c>
       <c r="N13" t="n">
-        <v>70.04767846479359</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O13" t="n">
         <v>36.70523308254133</v>
       </c>
       <c r="P13" t="n">
-        <v>57.81660688993934</v>
+        <v>144.6383149565884</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R13" t="n">
         <v>203.1838537831904</v>
@@ -28348,28 +28348,28 @@
         <v>203.4889990226862</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497519</v>
+        <v>162.5676826616243</v>
       </c>
       <c r="K14" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.5735953153435958</v>
       </c>
       <c r="N14" t="n">
-        <v>8.55566249042657</v>
+        <v>8.555662490426585</v>
       </c>
       <c r="O14" t="n">
-        <v>50.1994811461162</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33728430081817</v>
+        <v>13.33728430081818</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.5898616233221</v>
+        <v>88.39403938744564</v>
       </c>
       <c r="R14" t="n">
         <v>194.1150504928036</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>141.4283647017614</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J15" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,19 +28448,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R15" t="n">
-        <v>47.49273818813157</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4695228506098</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T15" t="n">
+        <v>132.6619815330987</v>
+      </c>
+      <c r="U15" t="n">
         <v>203.4889990226862</v>
-      </c>
-      <c r="U15" t="n">
-        <v>150.4059319079158</v>
       </c>
       <c r="V15" t="n">
         <v>203.4889990226862</v>
@@ -28491,7 +28491,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,25 +28500,25 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7757334795251</v>
+        <v>197.1286211257649</v>
       </c>
       <c r="I16" t="n">
         <v>164.6883657250528</v>
       </c>
       <c r="J16" t="n">
-        <v>203.4889990226862</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K16" t="n">
-        <v>86.01480711303705</v>
+        <v>66.39406177691127</v>
       </c>
       <c r="L16" t="n">
         <v>31.33805968349141</v>
       </c>
       <c r="M16" t="n">
-        <v>24.35887319852007</v>
+        <v>111.1805812651692</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O16" t="n">
         <v>123.5269411491904</v>
@@ -28527,7 +28527,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.4889990226862</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R16" t="n">
         <v>203.1838537831904</v>
@@ -28588,7 +28588,7 @@
         <v>75.74597459497519</v>
       </c>
       <c r="K17" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33728430081817</v>
+        <v>100.1589923674673</v>
       </c>
       <c r="Q17" t="n">
-        <v>175.2157474540947</v>
+        <v>88.39403938744564</v>
       </c>
       <c r="R17" t="n">
         <v>194.1150504928036</v>
@@ -28618,10 +28618,10 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U17" t="n">
-        <v>259.2788231244018</v>
+        <v>250.1495653186316</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>330.0090414149221</v>
       </c>
       <c r="W17" t="n">
         <v>334.5492523845696</v>
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>72.35060700992946</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28658,13 +28658,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H18" t="n">
-        <v>49.19991024354886</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I18" t="n">
-        <v>20.31691892792943</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J18" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3144462547806</v>
+        <v>47.49273818813157</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446082044576</v>
+        <v>144.5081157662282</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276399745649</v>
+        <v>150.4059319079158</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>153.8272128487532</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>136.5625780673765</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28752,10 +28752,10 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M19" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O19" t="n">
         <v>36.70523308254133</v>
@@ -28764,7 +28764,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R19" t="n">
         <v>203.1838537831904</v>
@@ -28825,13 +28825,13 @@
         <v>75.74597459497519</v>
       </c>
       <c r="K20" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3.000426919520919</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.33728430081817</v>
+        <v>13.33728430081818</v>
       </c>
       <c r="Q20" t="n">
         <v>88.39403938744564</v>
@@ -28855,10 +28855,10 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U20" t="n">
-        <v>259.2788231244018</v>
+        <v>250.1495653186316</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>327.0086144954013</v>
       </c>
       <c r="W20" t="n">
         <v>334.5492523845696</v>
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>100.6964434577168</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>95.3550113746952</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,13 +28895,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H21" t="n">
-        <v>49.19991024354886</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I21" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J21" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,22 +28922,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R21" t="n">
         <v>47.49273818813157</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276399745649</v>
+        <v>150.4059319079158</v>
       </c>
       <c r="V21" t="n">
-        <v>153.8272128487532</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>136.5625780673765</v>
       </c>
     </row>
     <row r="22">
@@ -28989,10 +28989,10 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M22" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O22" t="n">
         <v>36.70523308254133</v>
@@ -29001,7 +29001,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R22" t="n">
         <v>203.1838537831904</v>
@@ -29059,10 +29059,10 @@
         <v>240.5393448550615</v>
       </c>
       <c r="J23" t="n">
-        <v>84.87523240074532</v>
+        <v>75.74597459497519</v>
       </c>
       <c r="K23" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,22 +29074,22 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.12925780577001</v>
       </c>
       <c r="P23" t="n">
-        <v>13.33728430081817</v>
+        <v>13.33728430081818</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39403938744564</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1150504928036</v>
+        <v>280.9367585594526</v>
       </c>
       <c r="S23" t="n">
         <v>227.2389374904774</v>
       </c>
       <c r="T23" t="n">
-        <v>309.2341744444149</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
         <v>250.1495653186316</v>
@@ -29132,13 +29132,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H24" t="n">
-        <v>38.85076264200426</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I24" t="n">
-        <v>20.31691892792944</v>
+        <v>107.1386269945785</v>
       </c>
       <c r="J24" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R24" t="n">
-        <v>47.49273818813157</v>
+        <v>47.49273818813161</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4695228506098</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446082044576</v>
+        <v>128.1229001378085</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>164.1763604502978</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>152.9477936957962</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,10 +29226,10 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M25" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O25" t="n">
         <v>36.70523308254133</v>
@@ -29238,7 +29238,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R25" t="n">
         <v>203.1838537831904</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>82.56119084717295</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0250052082048</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H27" t="n">
         <v>125.6724707086533</v>
@@ -29375,7 +29375,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J27" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>161.9644419970018</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8393079519277</v>
+        <v>168.6953014514208</v>
       </c>
       <c r="H28" t="n">
         <v>165.7757334795251</v>
@@ -29463,43 +29463,43 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M28" t="n">
-        <v>24.35887319852007</v>
+        <v>106.3960452527157</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8393079519277</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81660688993934</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R28" t="n">
         <v>203.1838537831904</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8393079519265</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519269</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="30">
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>75.62612438064532</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29606,13 +29606,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I30" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J30" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8393079519277</v>
+        <v>137.9350928021218</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>165.7757334795251</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8393079519277</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J31" t="n">
         <v>119.8526328486804</v>
@@ -29697,46 +29697,46 @@
         <v>66.39406177691127</v>
       </c>
       <c r="L31" t="n">
-        <v>65.22428951081253</v>
+        <v>31.33805968349141</v>
       </c>
       <c r="M31" t="n">
-        <v>24.35887319852007</v>
+        <v>175.3380953722441</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O31" t="n">
         <v>36.70523308254133</v>
       </c>
       <c r="P31" t="n">
-        <v>212.8393079519277</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7586570094678</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R31" t="n">
         <v>203.1838537831904</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8393079519265</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>48.51270415793837</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H33" t="n">
         <v>125.6724707086533</v>
@@ -29849,7 +29849,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J33" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875093</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8393079519278</v>
+        <v>3.620646547341522</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="34">
@@ -29928,7 +29928,7 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J34" t="n">
-        <v>212.8393079519278</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K34" t="n">
         <v>66.39406177691127</v>
@@ -29937,43 +29937,43 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M34" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68256630572599</v>
+        <v>66.952910383787</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70523308254133</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P34" t="n">
-        <v>201.8898049028757</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1838537831904</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>236.9135307750557</v>
       </c>
       <c r="K35" t="n">
-        <v>168.916525051475</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,10 +30019,10 @@
         <v>236.9135307750557</v>
       </c>
       <c r="N35" t="n">
-        <v>236.9135307750557</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>150.2937024510914</v>
       </c>
       <c r="P35" t="n">
         <v>236.9135307750557</v>
@@ -30031,13 +30031,13 @@
         <v>236.9135307750557</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S35" t="n">
-        <v>236.9135307750557</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T35" t="n">
-        <v>236.9135307750557</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U35" t="n">
         <v>236.9135307750557</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>4.002898134217617</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30086,7 +30086,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J36" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.0360680268751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>59.43434541178246</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V36" t="n">
         <v>236.9135307750557</v>
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>210.4076610514688</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30174,10 +30174,10 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M37" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N37" t="n">
-        <v>97.58944513873773</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O37" t="n">
         <v>36.70523308254133</v>
@@ -30186,7 +30186,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R37" t="n">
         <v>236.9135307750557</v>
@@ -30195,7 +30195,7 @@
         <v>235.3426566118387</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7381717812877</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U37" t="n">
         <v>236.9135307750557</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J38" t="n">
-        <v>75.74597459497519</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K38" t="n">
-        <v>5.175029699349999</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L38" t="n">
-        <v>236.9135307750558</v>
+        <v>112.7807604684045</v>
       </c>
       <c r="M38" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O38" t="n">
-        <v>45.19704047489755</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P38" t="n">
-        <v>236.9135307750558</v>
+        <v>13.33728430081818</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>158.0820586058137</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30317,13 +30317,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I39" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J39" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,25 +30344,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3144462547806</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4695228506098</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>52.00619595643394</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W39" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30399,7 +30399,7 @@
         <v>165.7757334795251</v>
       </c>
       <c r="I40" t="n">
-        <v>236.9135307750558</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J40" t="n">
         <v>119.8526328486804</v>
@@ -30411,19 +30411,19 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M40" t="n">
-        <v>67.77026397339401</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O40" t="n">
         <v>36.70523308254133</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81660688993934</v>
+        <v>173.4531627148164</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R40" t="n">
         <v>203.1838537831904</v>
@@ -30435,13 +30435,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,19 +30481,19 @@
         <v>236.9135307750558</v>
       </c>
       <c r="J41" t="n">
-        <v>145.118672751741</v>
+        <v>75.74597459497519</v>
       </c>
       <c r="K41" t="n">
-        <v>5.175029699349999</v>
+        <v>5.175029699350013</v>
       </c>
       <c r="L41" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="N41" t="n">
-        <v>236.9135307750558</v>
+        <v>97.67011404172732</v>
       </c>
       <c r="O41" t="n">
         <v>236.9135307750558</v>
@@ -30505,13 +30505,13 @@
         <v>236.9135307750558</v>
       </c>
       <c r="R41" t="n">
-        <v>236.9135307750558</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S41" t="n">
         <v>227.2389374904774</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="U41" t="n">
         <v>236.9135307750558</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>109.8220335334707</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380757353064</v>
@@ -30560,7 +30560,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J42" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4695228506098</v>
+        <v>81.40326798238054</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
         <v>236.9135307750558</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30648,19 +30648,19 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M43" t="n">
-        <v>139.9954290233969</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68256630572599</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O43" t="n">
         <v>36.70523308254133</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81660688993934</v>
+        <v>173.4531627148161</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R43" t="n">
         <v>203.1838537831904</v>
@@ -30718,25 +30718,25 @@
         <v>236.9135307750558</v>
       </c>
       <c r="J44" t="n">
-        <v>126.1180447692228</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="K44" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="M44" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="N44" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>127.2818248656935</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750558</v>
+        <v>13.33728430081818</v>
       </c>
       <c r="Q44" t="n">
         <v>236.9135307750558</v>
@@ -30748,7 +30748,7 @@
         <v>236.9135307750558</v>
       </c>
       <c r="T44" t="n">
-        <v>236.9135307750558</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U44" t="n">
         <v>236.9135307750558</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30797,7 +30797,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J45" t="n">
-        <v>51.8583476922318</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875093</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3144462547806</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4695228506098</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>236.9135307750558</v>
+        <v>110.3100714842355</v>
       </c>
       <c r="V45" t="n">
         <v>236.9135307750558</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="X45" t="n">
-        <v>168.311508853013</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6953014514208</v>
+        <v>173.1698497259204</v>
       </c>
       <c r="H46" t="n">
         <v>165.7757334795251</v>
@@ -30885,10 +30885,10 @@
         <v>31.33805968349141</v>
       </c>
       <c r="M46" t="n">
-        <v>24.35887319852007</v>
+        <v>24.35887319852008</v>
       </c>
       <c r="N46" t="n">
-        <v>131.3191221306029</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O46" t="n">
         <v>36.70523308254133</v>
@@ -30897,7 +30897,7 @@
         <v>57.81660688993934</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7586570094678</v>
+        <v>126.7586570094679</v>
       </c>
       <c r="R46" t="n">
         <v>203.1838537831904</v>
@@ -30906,7 +30906,7 @@
         <v>235.3426566118387</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7381717812877</v>
+        <v>236.9135307750558</v>
       </c>
       <c r="U46" t="n">
         <v>236.9135307750558</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H11" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I11" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O11" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P11" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R11" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S11" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I12" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K12" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M12" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N12" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P12" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R12" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474622761746202</v>
@@ -31914,7 +31914,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I13" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J13" t="n">
         <v>13.28549693025816</v>
@@ -31926,28 +31926,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M13" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O13" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q13" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R13" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T13" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024983690131787</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H14" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I14" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O14" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P14" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R14" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S14" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I15" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K15" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M15" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N15" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P15" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R15" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474622761746202</v>
@@ -32151,7 +32151,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I16" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J16" t="n">
         <v>13.28549693025816</v>
@@ -32163,28 +32163,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M16" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O16" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q16" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R16" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T16" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024983690131787</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H17" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I17" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O17" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P17" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R17" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S17" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I18" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K18" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M18" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N18" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P18" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R18" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474622761746202</v>
@@ -32388,7 +32388,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I19" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J19" t="n">
         <v>13.28549693025816</v>
@@ -32400,28 +32400,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M19" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O19" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q19" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R19" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T19" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024983690131787</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H20" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I20" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O20" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P20" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R20" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S20" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I21" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K21" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M21" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N21" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P21" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R21" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474622761746202</v>
@@ -32625,7 +32625,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I22" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J22" t="n">
         <v>13.28549693025816</v>
@@ -32637,28 +32637,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M22" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O22" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q22" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R22" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T22" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024983690131787</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H23" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I23" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O23" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P23" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R23" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S23" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I24" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K24" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M24" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N24" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P24" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R24" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474622761746202</v>
@@ -32862,7 +32862,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I25" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J25" t="n">
         <v>13.28549693025816</v>
@@ -32874,28 +32874,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M25" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O25" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q25" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R25" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T25" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024983690131787</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H26" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I26" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O26" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P26" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R26" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S26" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I27" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K27" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M27" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N27" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P27" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R27" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474622761746202</v>
@@ -33099,7 +33099,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I28" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J28" t="n">
         <v>13.28549693025816</v>
@@ -33111,28 +33111,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M28" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O28" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q28" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R28" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T28" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024983690131787</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H29" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I29" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O29" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P29" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R29" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S29" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I30" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K30" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M30" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N30" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P30" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R30" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474622761746202</v>
@@ -33336,7 +33336,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I31" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J31" t="n">
         <v>13.28549693025816</v>
@@ -33348,28 +33348,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M31" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O31" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q31" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R31" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T31" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024983690131787</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H32" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I32" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O32" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P32" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R32" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S32" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I33" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K33" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M33" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N33" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P33" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R33" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474622761746202</v>
@@ -33573,7 +33573,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I34" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J34" t="n">
         <v>13.28549693025816</v>
@@ -33585,28 +33585,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M34" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O34" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q34" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R34" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T34" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024983690131787</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H35" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I35" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O35" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P35" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R35" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S35" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I36" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K36" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M36" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N36" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P36" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R36" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474622761746202</v>
@@ -33810,7 +33810,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I37" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J37" t="n">
         <v>13.28549693025816</v>
@@ -33822,28 +33822,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M37" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O37" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q37" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R37" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T37" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024983690131787</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H38" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I38" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O38" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P38" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R38" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S38" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I39" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K39" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M39" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N39" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P39" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R39" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474622761746202</v>
@@ -34047,7 +34047,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I40" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J40" t="n">
         <v>13.28549693025816</v>
@@ -34059,28 +34059,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M40" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O40" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q40" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R40" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T40" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024983690131787</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H41" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I41" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O41" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P41" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R41" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S41" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I42" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K42" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M42" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N42" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P42" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R42" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474622761746202</v>
@@ -34284,7 +34284,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I43" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J43" t="n">
         <v>13.28549693025816</v>
@@ -34296,28 +34296,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M43" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O43" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q43" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R43" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T43" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024983690131787</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4189213071895403</v>
+        <v>0.4189213071895402</v>
       </c>
       <c r="H44" t="n">
-        <v>4.290277837254881</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I44" t="n">
         <v>16.15046369542477</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55542229607828</v>
+        <v>35.55542229607827</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28836122941153</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10892418431344</v>
+        <v>66.10892418431342</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55891598104542</v>
+        <v>73.5589159810454</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74917614509771</v>
+        <v>74.74917614509769</v>
       </c>
       <c r="O44" t="n">
-        <v>70.58352739673171</v>
+        <v>70.5835273967317</v>
       </c>
       <c r="P44" t="n">
-        <v>60.24140762548993</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.2387883117645</v>
+        <v>45.23878831176449</v>
       </c>
       <c r="R44" t="n">
         <v>26.31506556274498</v>
       </c>
       <c r="S44" t="n">
-        <v>9.546169287581659</v>
+        <v>9.546169287581657</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833828022222214</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351370457516322</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>2.164746214243424</v>
       </c>
       <c r="I45" t="n">
-        <v>7.717192453138455</v>
+        <v>7.717192453138453</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17656594051662</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K45" t="n">
         <v>36.19412414613993</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66746654683048</v>
+        <v>48.66746654683046</v>
       </c>
       <c r="M45" t="n">
-        <v>56.79263796405203</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N45" t="n">
-        <v>58.295770099192</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32924063763079</v>
+        <v>53.32924063763078</v>
       </c>
       <c r="P45" t="n">
-        <v>42.80141720060409</v>
+        <v>42.80141720060407</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61161390524097</v>
+        <v>28.61161390524096</v>
       </c>
       <c r="R45" t="n">
         <v>13.91650654351949</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163351597330106</v>
+        <v>4.163351597330105</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034522120298391</v>
+        <v>0.9034522120298388</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474622761746202</v>
@@ -34521,7 +34521,7 @@
         <v>1.670723414914812</v>
       </c>
       <c r="I46" t="n">
-        <v>5.651076744926581</v>
+        <v>5.651076744926579</v>
       </c>
       <c r="J46" t="n">
         <v>13.28549693025816</v>
@@ -34533,28 +34533,28 @@
         <v>27.93763878069204</v>
       </c>
       <c r="M46" t="n">
-        <v>29.4563229482373</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75591742664727</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O46" t="n">
-        <v>26.56074402361502</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72730502252212</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q46" t="n">
         <v>15.73520794967313</v>
       </c>
       <c r="R46" t="n">
-        <v>8.449282218986351</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274822889971055</v>
+        <v>3.274822889971054</v>
       </c>
       <c r="T46" t="n">
-        <v>0.802903890603232</v>
+        <v>0.8029038906032318</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024983690131787</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11836494962087</v>
+        <v>58.24762275539104</v>
       </c>
       <c r="M11" t="n">
-        <v>83.82128114712818</v>
+        <v>83.82128114712816</v>
       </c>
       <c r="N11" t="n">
-        <v>86.82170806664908</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O11" t="n">
-        <v>37.19582223587643</v>
+        <v>36.62222692053287</v>
       </c>
       <c r="P11" t="n">
         <v>86.82170806664908</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.40104218157294</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>43.91271808440349</v>
+        <v>83.31376026597643</v>
       </c>
       <c r="M12" t="n">
         <v>86.82170806664908</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.03181805071389</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35559,31 +35559,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.71326554316118</v>
       </c>
       <c r="I13" t="n">
-        <v>38.80063329763341</v>
+        <v>5.662589897604685</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="N13" t="n">
-        <v>54.3651121590676</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11836494962087</v>
+        <v>49.11836494962085</v>
       </c>
       <c r="M14" t="n">
-        <v>83.82128114712818</v>
+        <v>84.39487646247176</v>
       </c>
       <c r="N14" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O14" t="n">
-        <v>86.82170806664908</v>
+        <v>36.62222692053287</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.19582223587643</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L15" t="n">
+        <v>45.01791191725207</v>
+      </c>
+      <c r="M15" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="M15" t="n">
-        <v>43.91271808440349</v>
-      </c>
       <c r="N15" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.71651423380047</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.81285781046125</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35796,22 +35796,22 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.35288764623979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.63636617400589</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>19.62074533612578</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.7303420132184</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11836494962087</v>
+        <v>49.11836494962085</v>
       </c>
       <c r="M17" t="n">
-        <v>83.82128114712818</v>
+        <v>83.82128114712816</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26604557622251</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O17" t="n">
-        <v>36.62222692053288</v>
+        <v>36.62222692053287</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>9.12925780577015</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.40104218157294</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>86.82170806664908</v>
+        <v>84.418954098825</v>
       </c>
       <c r="M18" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="N18" t="n">
-        <v>43.91271808440349</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>85.71651423380047</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11836494962087</v>
+        <v>49.11836494962085</v>
       </c>
       <c r="M20" t="n">
-        <v>83.82128114712818</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26604557622251</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O20" t="n">
-        <v>36.62222692053288</v>
+        <v>36.62222692053287</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36151,10 +36151,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.12925780577015</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.128830886249238</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L21" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>86.82170806664908</v>
+        <v>45.01791191725207</v>
       </c>
       <c r="N21" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="P21" t="n">
-        <v>43.91271808440349</v>
+        <v>85.71651423380047</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.129257805770127</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11836494962087</v>
+        <v>49.11836494962085</v>
       </c>
       <c r="M23" t="n">
-        <v>83.82128114712818</v>
+        <v>83.82128114712816</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26604557622251</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O23" t="n">
-        <v>36.62222692053288</v>
+        <v>45.75148472630288</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,13 +36379,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="N24" t="n">
-        <v>86.82170806664908</v>
+        <v>86.82170806664904</v>
       </c>
       <c r="O24" t="n">
-        <v>86.82170806664908</v>
+        <v>45.01791191725202</v>
       </c>
       <c r="P24" t="n">
-        <v>83.3137602659764</v>
+        <v>85.71651423380047</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0933333569525</v>
+        <v>137.0933333569526</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6642782525777</v>
+        <v>207.6642782525778</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9576729015486</v>
+        <v>261.9576729015487</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6605890990559</v>
+        <v>296.660589099056</v>
       </c>
       <c r="N26" t="n">
         <v>291.1053535281503</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724606</v>
+        <v>249.4615348724607</v>
       </c>
       <c r="P26" t="n">
         <v>199.5020236511096</v>
@@ -36616,7 +36616,7 @@
         <v>124.4452685644821</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72425745912417</v>
+        <v>18.72425745912422</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L27" t="n">
         <v>119.9356669720255</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>16.78179174629104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.14400650050693</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.03717205419558</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1340748693864</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0227010619884</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0933333569525</v>
+        <v>137.0933333569526</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6642782525765</v>
+        <v>207.6642782525778</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9576729015486</v>
+        <v>261.9576729015477</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6605890990559</v>
+        <v>296.660589099056</v>
       </c>
       <c r="N29" t="n">
         <v>291.1053535281503</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4615348724606</v>
+        <v>249.4615348724607</v>
       </c>
       <c r="P29" t="n">
         <v>199.5020236511096</v>
@@ -36853,7 +36853,7 @@
         <v>124.4452685644821</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72425745912417</v>
+        <v>18.72425745912422</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L30" t="n">
         <v>119.9356669720255</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.1509422268749</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>33.88622982732112</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.9792221737241</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0227010619884</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08065094245994</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0933333569526</v>
+        <v>137.0933333569525</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6642782525778</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9576729015487</v>
+        <v>261.9576729015486</v>
       </c>
       <c r="M32" t="n">
-        <v>296.660589099056</v>
+        <v>296.6605890990559</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1053535281503</v>
+        <v>291.1053535281502</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4615348724607</v>
+        <v>249.4615348724606</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5020236511097</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4452685644808</v>
+        <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912425</v>
+        <v>18.72425745912413</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L33" t="n">
         <v>119.9356669720255</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.98667510324746</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.27034407806101</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1340748693864</v>
       </c>
       <c r="P34" t="n">
-        <v>144.0731980129363</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.655454168737288</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K35" t="n">
-        <v>163.741495352125</v>
+        <v>231.7385010757057</v>
       </c>
       <c r="L35" t="n">
-        <v>49.11836494962087</v>
+        <v>49.11836494962085</v>
       </c>
       <c r="M35" t="n">
         <v>320.7348119221839</v>
       </c>
       <c r="N35" t="n">
-        <v>315.1795763512782</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O35" t="n">
-        <v>36.62222692053288</v>
+        <v>186.9159293716243</v>
       </c>
       <c r="P35" t="n">
         <v>223.5762464742375</v>
@@ -37327,13 +37327,13 @@
         <v>148.5194913876101</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.79848028225213</v>
       </c>
       <c r="S35" t="n">
-        <v>9.674593284578361</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>14.50106439728987</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L36" t="n">
         <v>119.9356669720255</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.73151983924377</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.90687883301175</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37485,13 +37485,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.72967699186529</v>
+        <v>33.72967699186528</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>13.17535899376799</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>161.1675561800805</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>231.7385010757057</v>
       </c>
       <c r="L38" t="n">
-        <v>286.0318957246766</v>
+        <v>161.8991254180254</v>
       </c>
       <c r="M38" t="n">
-        <v>320.734811922184</v>
+        <v>83.82128114712816</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1795763512783</v>
+        <v>315.1795763512782</v>
       </c>
       <c r="O38" t="n">
-        <v>81.81926739543043</v>
+        <v>273.5357576955886</v>
       </c>
       <c r="P38" t="n">
-        <v>223.5762464742376</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>148.5194913876101</v>
       </c>
       <c r="R38" t="n">
-        <v>42.79848028225219</v>
+        <v>42.79848028225213</v>
       </c>
       <c r="S38" t="n">
-        <v>9.674593284578417</v>
+        <v>9.674593284578359</v>
       </c>
       <c r="T38" t="n">
-        <v>14.50106439728993</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L39" t="n">
         <v>119.9356669720255</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.22516505000293</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>43.41139077487394</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>115.636555824877</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.37269815676582</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>286.0318957246766</v>
       </c>
       <c r="M41" t="n">
-        <v>83.82128114712818</v>
+        <v>320.734811922184</v>
       </c>
       <c r="N41" t="n">
-        <v>315.1795763512783</v>
+        <v>175.9361596179498</v>
       </c>
       <c r="O41" t="n">
         <v>273.5357576955886</v>
@@ -37801,13 +37801,13 @@
         <v>148.5194913876101</v>
       </c>
       <c r="R41" t="n">
-        <v>42.79848028225219</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>14.50106439728996</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L42" t="n">
         <v>119.9356669720255</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6365558248769</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>115.6365558248768</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.3720701742476</v>
+        <v>161.1675561800806</v>
       </c>
       <c r="K44" t="n">
         <v>231.7385010757058</v>
       </c>
       <c r="L44" t="n">
-        <v>49.11836494962087</v>
+        <v>286.0318957246766</v>
       </c>
       <c r="M44" t="n">
         <v>320.734811922184</v>
       </c>
       <c r="N44" t="n">
-        <v>315.1795763512783</v>
+        <v>78.2660455762225</v>
       </c>
       <c r="O44" t="n">
-        <v>36.62222692053288</v>
+        <v>163.9040517862264</v>
       </c>
       <c r="P44" t="n">
-        <v>223.5762464742376</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>148.5194913876101</v>
       </c>
       <c r="R44" t="n">
-        <v>42.79848028225219</v>
+        <v>42.79848028225221</v>
       </c>
       <c r="S44" t="n">
-        <v>9.674593284578417</v>
+        <v>9.674593284578444</v>
       </c>
       <c r="T44" t="n">
-        <v>14.50106439728993</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.40104218157294</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L45" t="n">
         <v>119.9356669720255</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.98664855660914</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.474548274499592</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6365558248769</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>13.17535899376807</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
